--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/25.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/25.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4645136254030218</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.941893665934373</v>
+        <v>-1.94707026644069</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1301554830000708</v>
+        <v>0.1320929668167067</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1473879786969456</v>
+        <v>-0.1482523271667635</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4962708817459544</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.084211853595698</v>
+        <v>-2.090135268700515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06757344167945127</v>
+        <v>0.06863927678581462</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1200456580984983</v>
+        <v>-0.1207596216149527</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.5656224800139933</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.296171415097187</v>
+        <v>-2.302651838548685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05442132847654571</v>
+        <v>0.05571639113318173</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.143254582551583</v>
+        <v>-0.1440824298191282</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.6655393078185475</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.46594580710805</v>
+        <v>-2.472537924238503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004053893052874874</v>
+        <v>0.001081391571378215</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1687061408723035</v>
+        <v>-0.1693982036673942</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.7808260052879584</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.535656533232531</v>
+        <v>-2.543496261456666</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07353290606641993</v>
+        <v>-0.07418408751496521</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1720306703753026</v>
+        <v>-0.1721387139340298</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.88923961219457</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.335081696719904</v>
+        <v>-2.342104528037174</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1245864076612244</v>
+        <v>-0.1271108308104056</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1476347268243091</v>
+        <v>-0.1478157727875818</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.9718660287623943</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.027416712883395</v>
+        <v>-2.034887778964575</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1742645439543929</v>
+        <v>-0.1779497053358464</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1164860608528629</v>
+        <v>-0.1162232521964994</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.016214353102877</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.673596688797081</v>
+        <v>-1.681659074355079</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1040858724167754</v>
+        <v>-0.1077739538944107</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07357524746105629</v>
+        <v>-0.07329053808332908</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.013886766393711</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.242562751447106</v>
+        <v>-1.250877725324831</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009705895644375899</v>
+        <v>0.008126123610012687</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01083114080234586</v>
+        <v>-0.01051723046280049</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.9587865151552687</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9297824891240991</v>
+        <v>-0.9391165765692784</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0743933263120858</v>
+        <v>0.07432032390754037</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01619973763261714</v>
+        <v>-0.01602307181361719</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.8446779394847036</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.565160299237197</v>
+        <v>-0.5759763354946487</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1458670605063393</v>
+        <v>0.1470321788828845</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02138290835534302</v>
+        <v>-0.02255532697234271</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.6707507022519353</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1210852123392253</v>
+        <v>-0.1337482094316765</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01050016180583023</v>
+        <v>0.01112506238873916</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04739557706309305</v>
+        <v>0.04614577589727521</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.4449311196685717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3323006012344711</v>
+        <v>0.3185878295646566</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1625199171111233</v>
+        <v>-0.1621388445593961</v>
       </c>
       <c r="G14" t="n">
-        <v>0.115600263581802</v>
+        <v>0.1133152883195299</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.1892201024594731</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8769452606823248</v>
+        <v>0.8633054914170558</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1821064622506635</v>
+        <v>-0.1789834193842098</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1974958210489619</v>
+        <v>0.1950341799676898</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.06508933165886906</v>
       </c>
       <c r="E16" t="n">
-        <v>1.575949124397228</v>
+        <v>1.564343202122595</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.51678598588921</v>
+        <v>-0.5127474928697565</v>
       </c>
       <c r="G16" t="n">
-        <v>0.262627106336308</v>
+        <v>0.260212186793945</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3052607836045007</v>
       </c>
       <c r="E17" t="n">
-        <v>2.280362466288948</v>
+        <v>2.270939315910223</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.683402293879438</v>
+        <v>-0.6789360067693483</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3730534635479147</v>
+        <v>0.3701669484721882</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5402737640795751</v>
       </c>
       <c r="E18" t="n">
-        <v>3.042825860227107</v>
+        <v>3.035708125783927</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9615808764959997</v>
+        <v>-0.9576212260734552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4843310287965212</v>
+        <v>0.480863414580613</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.784103886473465</v>
       </c>
       <c r="E19" t="n">
-        <v>3.671633531827302</v>
+        <v>3.666129150524576</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.201481378313208</v>
+        <v>-1.197645831978391</v>
       </c>
       <c r="G19" t="n">
-        <v>0.604206817252489</v>
+        <v>0.6008501666914899</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.03933306165403</v>
       </c>
       <c r="E20" t="n">
-        <v>4.331703753150034</v>
+        <v>4.329975056210397</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.461736410565774</v>
+        <v>-1.458213314522412</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7161341039015499</v>
+        <v>0.7118751436203692</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.29203061633581</v>
       </c>
       <c r="E21" t="n">
-        <v>4.854695899409712</v>
+        <v>4.854928047056166</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.733712708892156</v>
+        <v>-1.731684702093884</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8638354888740556</v>
+        <v>0.8599649013850567</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.527083778309351</v>
       </c>
       <c r="E22" t="n">
-        <v>5.371738349698936</v>
+        <v>5.375595796755117</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.953408335203324</v>
+        <v>-1.951751910644188</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9505550452335778</v>
+        <v>0.9467151187544879</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.732425067849756</v>
       </c>
       <c r="E23" t="n">
-        <v>5.717850049889297</v>
+        <v>5.723607019511751</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.202347264727303</v>
+        <v>-2.202127527489621</v>
       </c>
       <c r="G23" t="n">
-        <v>1.060403223401185</v>
+        <v>1.055925255906368</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.900510839176329</v>
       </c>
       <c r="E24" t="n">
-        <v>6.139687144314639</v>
+        <v>6.148689800843182</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.431447060792014</v>
+        <v>-2.432939229940923</v>
       </c>
       <c r="G24" t="n">
-        <v>1.180420636521971</v>
+        <v>1.176830378266426</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.027270306606063</v>
       </c>
       <c r="E25" t="n">
-        <v>6.428747465352743</v>
+        <v>6.440852724074468</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556005223475526</v>
+        <v>-2.556968855215526</v>
       </c>
       <c r="G25" t="n">
-        <v>1.254483035981405</v>
+        <v>1.25090737820677</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.11081014942598</v>
       </c>
       <c r="E26" t="n">
-        <v>6.591915139752245</v>
+        <v>6.607463191872331</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605151902263604</v>
+        <v>-2.605664379143513</v>
       </c>
       <c r="G26" t="n">
-        <v>1.31823019567857</v>
+        <v>1.315327620073844</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.155214240112443</v>
       </c>
       <c r="E27" t="n">
-        <v>6.696066210269126</v>
+        <v>6.712963346825212</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.688805357632218</v>
+        <v>-2.690709990366808</v>
       </c>
       <c r="G27" t="n">
-        <v>1.329022871166567</v>
+        <v>1.325656000268932</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.163875260860626</v>
       </c>
       <c r="E28" t="n">
-        <v>6.878639383844895</v>
+        <v>6.89802444234789</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.716322153977528</v>
+        <v>-2.717109849922574</v>
       </c>
       <c r="G28" t="n">
-        <v>1.368788740970556</v>
+        <v>1.365881785221557</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.141665488916567</v>
       </c>
       <c r="E29" t="n">
-        <v>6.842181983014905</v>
+        <v>6.862667917778444</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.737129299321068</v>
+        <v>-2.738823685130568</v>
       </c>
       <c r="G29" t="n">
-        <v>1.354567872565106</v>
+        <v>1.351999647973197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.093271655863837</v>
       </c>
       <c r="E30" t="n">
-        <v>6.777220063306104</v>
+        <v>6.798457922836462</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640198896637776</v>
+        <v>-2.640524487362049</v>
       </c>
       <c r="G30" t="n">
-        <v>1.337797760192928</v>
+        <v>1.33532589877502</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.02245341778553</v>
       </c>
       <c r="E31" t="n">
-        <v>6.800138438189098</v>
+        <v>6.823801437598456</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.541136823741757</v>
+        <v>-2.540637487294667</v>
       </c>
       <c r="G31" t="n">
-        <v>1.299354693959302</v>
+        <v>1.297034677542849</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.934578556700646</v>
       </c>
       <c r="E32" t="n">
-        <v>6.758420484087564</v>
+        <v>6.78391438380292</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.407743910060157</v>
+        <v>-2.406288242113521</v>
       </c>
       <c r="G32" t="n">
-        <v>1.25253095168386</v>
+        <v>1.251040242583042</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.832919414851358</v>
       </c>
       <c r="E33" t="n">
-        <v>6.591266878399882</v>
+        <v>6.618209145821419</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.373047327227802</v>
+        <v>-2.371997552650439</v>
       </c>
       <c r="G33" t="n">
-        <v>1.194577262811421</v>
+        <v>1.192963909670967</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.724366030747485</v>
       </c>
       <c r="E34" t="n">
-        <v>6.295078602581961</v>
+        <v>6.319202977188045</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.336242434952176</v>
+        <v>-2.334213698129858</v>
       </c>
       <c r="G34" t="n">
-        <v>1.144551635072617</v>
+        <v>1.143043405394708</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.614936840115433</v>
       </c>
       <c r="E35" t="n">
-        <v>6.099486180179559</v>
+        <v>6.123578433727643</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297734396578504</v>
+        <v>-2.29703649359105</v>
       </c>
       <c r="G35" t="n">
-        <v>1.084631261421724</v>
+        <v>1.082988707319451</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.509229433849464</v>
       </c>
       <c r="E36" t="n">
-        <v>5.902422029301521</v>
+        <v>5.926689488620514</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.234479273087976</v>
+        <v>-2.232601651243067</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062070598321002</v>
+        <v>1.061688065721184</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.413259990905034</v>
       </c>
       <c r="E37" t="n">
-        <v>5.597130353636785</v>
+        <v>5.62037285919596</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.189315605491897</v>
+        <v>-2.188462207382761</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9571763633258488</v>
+        <v>0.9561382691332126</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.328348865151918</v>
       </c>
       <c r="E38" t="n">
-        <v>5.291150995321231</v>
+        <v>5.314229975494224</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.143145964761183</v>
+        <v>-2.142068449270092</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8837739056035049</v>
+        <v>0.882524104437687</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.25687760474521</v>
       </c>
       <c r="E39" t="n">
-        <v>4.976344186248042</v>
+        <v>4.9997502171934</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.084630157373744</v>
+        <v>-2.083423427626608</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8032741541112537</v>
+        <v>0.8015921787105269</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.198439608255153</v>
       </c>
       <c r="E40" t="n">
-        <v>4.685766875243484</v>
+        <v>4.708711530992114</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.104342266649102</v>
+        <v>-2.103931993135557</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7625680133367192</v>
+        <v>0.7614890377975376</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.150243163267081</v>
       </c>
       <c r="E41" t="n">
-        <v>4.365173895586024</v>
+        <v>4.387392907433473</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998823861095085</v>
+        <v>-1.998475639625403</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6831924988744678</v>
+        <v>0.6818886759292863</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.11137286417997</v>
       </c>
       <c r="E42" t="n">
-        <v>3.988097495483671</v>
+        <v>4.008177536877938</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908503096119336</v>
+        <v>-1.908031500585973</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6038476454221254</v>
+        <v>0.6029000742111257</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.0771374698803</v>
       </c>
       <c r="E43" t="n">
-        <v>3.687440012459479</v>
+        <v>3.706292153409292</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855963995592032</v>
+        <v>-1.855452978760214</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5636525214794089</v>
+        <v>0.5626655289699547</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.044620166309406</v>
       </c>
       <c r="E44" t="n">
-        <v>3.386783989483378</v>
+        <v>3.403758508588283</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.760992247422694</v>
+        <v>-1.760297264531422</v>
       </c>
       <c r="G44" t="n">
-        <v>0.514445980719604</v>
+        <v>0.5138751019160587</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.010462472524153</v>
       </c>
       <c r="E45" t="n">
-        <v>3.104363967162727</v>
+        <v>3.121164740544813</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.678445508506989</v>
+        <v>-1.67774030527908</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4198684455348112</v>
+        <v>0.4186536855231752</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9717667395835599</v>
       </c>
       <c r="E46" t="n">
-        <v>2.809993451217987</v>
+        <v>2.825815992379165</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.600188390882374</v>
+        <v>-1.599808778378737</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3820210789222759</v>
+        <v>0.3807216361213672</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.9284518800878138</v>
       </c>
       <c r="E47" t="n">
-        <v>2.480418255705258</v>
+        <v>2.495167661519618</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.478867154816406</v>
+        <v>-1.477867021874134</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3183264809563839</v>
+        <v>0.3170270381554752</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.8799207196759626</v>
       </c>
       <c r="E48" t="n">
-        <v>2.188360455936518</v>
+        <v>2.201322762887606</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.37499641353298</v>
+        <v>-1.37318157375598</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2898818240493007</v>
+        <v>0.2891430397153009</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8276036441260368</v>
       </c>
       <c r="E49" t="n">
-        <v>1.908361193350593</v>
+        <v>1.919806510335227</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.288822915159457</v>
+        <v>-1.286367114270549</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2361432940153151</v>
+        <v>0.2350759988608608</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.7725500487390792</v>
       </c>
       <c r="E50" t="n">
-        <v>1.774261616392993</v>
+        <v>1.785699633137172</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.167619942988853</v>
+        <v>-1.164270592668309</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1977922108114163</v>
+        <v>0.1970505063812347</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.7159656534880401</v>
       </c>
       <c r="E51" t="n">
-        <v>1.499609049915976</v>
+        <v>1.509001539284792</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.091640500386056</v>
+        <v>-1.08838605319142</v>
       </c>
       <c r="G51" t="n">
-        <v>0.166837731236061</v>
+        <v>0.1663661357026975</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.6595546612875768</v>
       </c>
       <c r="E52" t="n">
-        <v>1.341171931331018</v>
+        <v>1.349244537225653</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.009286487818351</v>
+        <v>-1.005551684801806</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1441734047208852</v>
+        <v>0.1436755283218854</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.6042361864881794</v>
       </c>
       <c r="E53" t="n">
-        <v>1.099097417906447</v>
+        <v>1.105874961144445</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9359876935104611</v>
+        <v>-0.9317009923155531</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1006333106018969</v>
+        <v>0.1002128167517152</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.5514281710386761</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9545482767622131</v>
+        <v>0.9603300672022116</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9433112947344591</v>
+        <v>-0.9391647581562784</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04968493246963789</v>
+        <v>0.04941482357281978</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5023401776009501</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7934086091609837</v>
+        <v>0.798936351233164</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8967956226061988</v>
+        <v>-0.8930724999743817</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02207834316673621</v>
+        <v>0.02138044017928185</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4571568654591186</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6477074900730228</v>
+        <v>0.6518277457855671</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.847889851753121</v>
+        <v>-0.843365162719395</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0154789257958289</v>
+        <v>0.01509785324410172</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.416998731710106</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5043147070167885</v>
+        <v>0.5079546069074239</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8159118784660387</v>
+        <v>-0.8107038869257674</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01202107999643645</v>
+        <v>-0.01288396841816349</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3814357602000031</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3945687322155453</v>
+        <v>0.3975194894072718</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8101928700939494</v>
+        <v>-0.805481294904587</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02780858000343221</v>
+        <v>-0.028259734863523</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3504373492884529</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2486573662024935</v>
+        <v>0.2516869659911291</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7454441174064214</v>
+        <v>-0.7408259852948771</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09267851668250569</v>
+        <v>-0.09379691352014176</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3238023548730784</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1886406293776006</v>
+        <v>0.1913227377205999</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7288068694105168</v>
+        <v>-0.7239113281616998</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.07999945906105456</v>
+        <v>-0.08104047334987247</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2999927309181692</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03087513291446112</v>
+        <v>0.03320098952327868</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7010425949137968</v>
+        <v>-0.6963602206862527</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1364609787845849</v>
+        <v>-0.1374990729772209</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2783895156787073</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05642990272951543</v>
+        <v>-0.0538397774162434</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7194377408111556</v>
+        <v>-0.7148473496133386</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1686506590448489</v>
+        <v>-0.1693587823689396</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2572589569212665</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1497298958347631</v>
+        <v>-0.1475836251411273</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7530582682005101</v>
+        <v>-0.7486693636392386</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1837285756796631</v>
+        <v>-0.1846484059769355</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2352791805543048</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2628734025435509</v>
+        <v>-0.2602000544890971</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7558995217854185</v>
+        <v>-0.7514726559737833</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2172337592698359</v>
+        <v>-0.2178907809107448</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2112826758769337</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4156732754495099</v>
+        <v>-0.4131196513385106</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7373919521850598</v>
+        <v>-0.7325080913209703</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.237670052398285</v>
+        <v>-0.2383489747605575</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1841397687063854</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4403247274164124</v>
+        <v>-0.4369826773363223</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7679872599300517</v>
+        <v>-0.7629968155553257</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2534283514434625</v>
+        <v>-0.2535524555311898</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1534639941392347</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5268296567065709</v>
+        <v>-0.5238511586011172</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8082714468063136</v>
+        <v>-0.8035540314245876</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2683500429325494</v>
+        <v>-0.2683588032210949</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1184224818876513</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.560394702268471</v>
+        <v>-0.5566190179053812</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7577537828608726</v>
+        <v>-0.7511499853456926</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3193349222670812</v>
+        <v>-0.3203584159788082</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.07905967482021196</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6407382286149949</v>
+        <v>-0.6374078589196321</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8033686053170421</v>
+        <v>-0.7974101490580437</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3179434964364452</v>
+        <v>-0.3181654237462633</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.03530031525819925</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7501381720186928</v>
+        <v>-0.7471815746346027</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8004251483657702</v>
+        <v>-0.7932928134416812</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3575589812870709</v>
+        <v>-0.3584101893240707</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.01260226955930937</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7783915626258671</v>
+        <v>-0.7752378587495042</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9288130171917357</v>
+        <v>-0.922844340596101</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4020612470979681</v>
+        <v>-0.4034512128805132</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06351792080630519</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.821249814286401</v>
+        <v>-0.8175661129530383</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9953634692234451</v>
+        <v>-0.9893977127239922</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4196314658239634</v>
+        <v>-0.4207440224692358</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1165684609563558</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8722536742461146</v>
+        <v>-0.869751151818297</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.029735921379618</v>
+        <v>-1.024435946809619</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4527511967181363</v>
+        <v>-0.4540769203846814</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1698981213066039</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8148416632154027</v>
+        <v>-0.812629690357676</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.054841448302793</v>
+        <v>-1.049299105749703</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.467163331423496</v>
+        <v>-0.4686116991296775</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2211556321856769</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7987519332535888</v>
+        <v>-0.7970699578528621</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.120073476908412</v>
+        <v>-1.115637850808231</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4560888666539536</v>
+        <v>-0.4574058300319532</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2677737972310625</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7151860807704294</v>
+        <v>-0.7137158123428844</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.162263026543309</v>
+        <v>-1.158868414731947</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4587928757183165</v>
+        <v>-0.4599871950566798</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3076737809699426</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5643572727871973</v>
+        <v>-0.5620036752646524</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.14671059427895</v>
+        <v>-1.142556757460315</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4393318947145944</v>
+        <v>-0.4406765990063213</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3394765372721432</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4257286266515981</v>
+        <v>-0.4224741794569626</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.170985353838398</v>
+        <v>-1.167545480536217</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4516912018041366</v>
+        <v>-0.4537104483138633</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3620248090020617</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3229485412920802</v>
+        <v>-0.3194137648639903</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.252934933084921</v>
+        <v>-1.250190042674013</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3954253285247881</v>
+        <v>-0.3970328414728785</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.374797172100301</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1337788704415856</v>
+        <v>-0.1303316968989501</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.309856367957088</v>
+        <v>-1.307894063322907</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3729347477324305</v>
+        <v>-0.3746079628446118</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3775513606697585</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02458086559455372</v>
+        <v>0.02871572178800716</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301620236676272</v>
+        <v>-1.301081478930727</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3231266671591711</v>
+        <v>-0.3239486742343527</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.369746988849878</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2363316402190423</v>
+        <v>0.2409395519939502</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289500377473639</v>
+        <v>-1.289728144975821</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2872167843632716</v>
+        <v>-0.2879555686972715</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3513469348526507</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4186741261964479</v>
+        <v>0.4233754810491739</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230577216668836</v>
+        <v>-1.230704240852746</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2694085777984582</v>
+        <v>-0.2700889602088217</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.322781840362718</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6252884516371197</v>
+        <v>0.6293094240794822</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.153136265927039</v>
+        <v>-1.15273621275013</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2449279514581921</v>
+        <v>-0.2456112539647374</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2855153478517642</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7398613454269071</v>
+        <v>0.7428529839651791</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.06521655003679</v>
+        <v>-1.064041211323608</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2094079015025653</v>
+        <v>-0.209748092707747</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2418038771567441</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9648956375824831</v>
+        <v>0.9686187602143003</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.999428243108535</v>
+        <v>-0.9985609745425352</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1802069396843913</v>
+        <v>-0.1809369637298456</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.19530293765593</v>
       </c>
       <c r="E87" t="n">
-        <v>1.108091314146445</v>
+        <v>1.111656751584444</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9436850670457317</v>
+        <v>-0.9432718734360046</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1501489296368539</v>
+        <v>-0.1510293386356719</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1509174332541559</v>
       </c>
       <c r="E88" t="n">
-        <v>1.210576469791599</v>
+        <v>1.213446924338325</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8887857987794737</v>
+        <v>-0.8889464040694737</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1137470106343182</v>
+        <v>-0.1146741411720452</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1134015539273498</v>
       </c>
       <c r="E89" t="n">
-        <v>1.332618969614475</v>
+        <v>1.335420801900929</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7919831503041361</v>
+        <v>-0.7936534453201357</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1121526381190459</v>
+        <v>-0.113046187550682</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08791475300231248</v>
       </c>
       <c r="E90" t="n">
-        <v>1.370222508195829</v>
+        <v>1.371678176142465</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6918399117967994</v>
+        <v>-0.6935335675822535</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07800357332078237</v>
+        <v>-0.07851897029687314</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07722667739637064</v>
       </c>
       <c r="E91" t="n">
-        <v>1.414863478575362</v>
+        <v>1.415735127285635</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.586333916651555</v>
+        <v>-0.5886261921542816</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01677207648425335</v>
+        <v>-0.01645816614470798</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.08215124100823105</v>
       </c>
       <c r="E92" t="n">
-        <v>1.438202347308538</v>
+        <v>1.438990773277628</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4584775053306802</v>
+        <v>-0.4613903012720431</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02036087469170694</v>
+        <v>-0.02054776084734325</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1008041575946107</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409691988237364</v>
+        <v>1.409763530593818</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3499959321761639</v>
+        <v>-0.3530561929747085</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01369283506052691</v>
+        <v>-0.01397462434207229</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1279164313536501</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409776671026636</v>
+        <v>1.410540276178182</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2104927172341104</v>
+        <v>-0.213425953848746</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01664359225225339</v>
+        <v>-0.0164114446057989</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1585598489061832</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335270416947565</v>
+        <v>1.335530305507747</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09442765429541432</v>
+        <v>-0.0970586609552318</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01890520674507096</v>
+        <v>-0.01881468376343462</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.188817330242245</v>
       </c>
       <c r="E96" t="n">
-        <v>1.257092141919859</v>
+        <v>1.257763764041677</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03232204057255164</v>
+        <v>0.03039623714064307</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03373345515633971</v>
+        <v>-0.03379769727233969</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2170151921211018</v>
       </c>
       <c r="E97" t="n">
-        <v>1.174710388438427</v>
+        <v>1.174891434401699</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1326404848507974</v>
+        <v>0.1319250612862522</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05236366879633471</v>
+        <v>-0.0523782692772438</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2452354091942967</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076919287405544</v>
+        <v>1.07614108177309</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1935887323576902</v>
+        <v>0.1930528947083267</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05738769427715154</v>
+        <v>-0.05756874024042422</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2741087524459429</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9395346022433989</v>
+        <v>0.9386060116575811</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1948998555433262</v>
+        <v>0.1947012890029626</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05201763739878935</v>
+        <v>-0.05104670541833506</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3076852404006131</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8449658273471516</v>
+        <v>0.8437539874316974</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2112961956042309</v>
+        <v>0.2114845418079581</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04555692459651835</v>
+        <v>-0.04507072858224576</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3429654430004765</v>
       </c>
       <c r="E101" t="n">
-        <v>0.692417082712829</v>
+        <v>0.6900518048055568</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1978695933602345</v>
+        <v>0.1976724868679618</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04945087285497185</v>
+        <v>-0.04923332568942645</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3822746513647915</v>
       </c>
       <c r="E102" t="n">
-        <v>0.632766817958754</v>
+        <v>0.6310206004420272</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2066693032041412</v>
+        <v>0.2070182546978684</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08152666936414506</v>
+        <v>-0.08136898417032692</v>
       </c>
     </row>
   </sheetData>
